--- a/Experiments/221218_ATP_regen/221213_arpae_plasmids_updated.xlsx
+++ b/Experiments/221218_ATP_regen/221213_arpae_plasmids_updated.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18.15,</t>
+          <t>22.174999999999997,</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>59.2,</t>
+          <t>60.2,</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>46.815,</t>
+          <t>48.089999999999996,</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>54.074,</t>
+          <t>54.899,</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>34.85,</t>
+          <t>35.074999999999996,</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>46.349999999999994,</t>
+          <t>46.425,</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>59.4,</t>
+          <t>59.25,</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20.924999999999898,</t>
+          <t>21.624999999999897,</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>58.19,</t>
+          <t>58.94,</t>
         </is>
       </c>
     </row>
@@ -960,11 +960,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>58.725,</t>
+          <t>59.375,</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>